--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4220" yWindow="1500" windowWidth="25160" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4220" yWindow="1500" windowWidth="25160" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="org_fix" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="org_var" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="var1_fix" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="var2_var" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="var2_fix" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="var3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -488,25 +489,25 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Einkauf</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Verkauf</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Gebotspreis</t>
         </is>
@@ -522,7 +523,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -534,7 +534,6 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -546,7 +545,6 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -574,7 +572,6 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -586,7 +583,6 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -630,7 +626,6 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -642,7 +637,6 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -654,7 +648,6 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -666,7 +659,6 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -678,7 +670,6 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -722,7 +713,6 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -734,7 +724,6 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -746,7 +735,6 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -758,7 +746,6 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -770,7 +757,6 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -814,7 +800,6 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -849,25 +834,25 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Einkauf</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Verkauf</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Gebotspreis</t>
         </is>
@@ -1174,25 +1159,25 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Einkauf</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Verkauf</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Gebotspreis</t>
         </is>
@@ -2121,7 +2106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2147,6 +2132,11 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>Risikoklasse</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>Gebotspreis</t>
         </is>
       </c>
@@ -2189,10 +2179,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>20.825</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="6">
@@ -2225,7 +2221,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>11.517</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -2236,12 +2238,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>11.517</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
+        <v>19.195</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -2309,10 +2312,11 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
+      <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -2325,10 +2329,11 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -2396,10 +2401,11 @@
       <c r="C22" t="n">
         <v>19.195</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -2412,10 +2418,11 @@
       <c r="C23" t="n">
         <v>11.517</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -2434,578 +2441,398 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>12.495</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="n">
-        <v>12.495</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="n">
-        <v>20.825</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>19.195</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>11.517</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Einkauf</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Verkauf</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Risikoklasse</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Gebotspreis</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20.404</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31.356</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
         <v>49</v>
       </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>12.495</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>20.825</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.243</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11.758</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>36.728</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.919</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31.356</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
         <v>68</v>
       </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>19.195</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.243</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -2543,7 +2543,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.404</v>
+        <v>16.323</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2560,13 +2560,17 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4.081</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2589,10 +2593,14 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+        <v>15.678</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2602,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>31.356</v>
+        <v>15.678</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -2681,16 +2689,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.243</v>
+        <v>16.323</v>
       </c>
       <c r="C15" t="n">
-        <v>11.758</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -2698,16 +2706,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.728</v>
+        <v>16.323</v>
       </c>
       <c r="C16" t="n">
-        <v>3.919</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -2783,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>31.356</v>
+        <v>15.678</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -2800,10 +2808,14 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+        <v>15.678</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">

--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4220" yWindow="1500" windowWidth="25160" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4220" yWindow="1500" windowWidth="25160" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="org_fix" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="org_var" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="var1_fix" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="var2_fix" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="var3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="var1_var" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="var2_fix" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="var2_var" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="var3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -485,8 +487,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2106,36 +2108,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Einkauf</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Verkauf</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Risikoklasse</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Gebotspreis</t>
         </is>
@@ -2179,16 +2176,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.825</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>115</v>
       </c>
     </row>
     <row r="6">
@@ -2221,13 +2212,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>11.517</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2238,13 +2223,12 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>19.195</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>49</v>
+        <v>11.517</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2312,11 +2296,10 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="n">
-        <v>8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>31</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2329,11 +2312,10 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>31</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2401,11 +2383,10 @@
       <c r="C22" t="n">
         <v>19.195</v>
       </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>68</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2418,11 +2399,10 @@
       <c r="C23" t="n">
         <v>11.517</v>
       </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>75</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2441,16 +2421,573 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
         <v>12.495</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>120</v>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20.825</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>19.195</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>11.517</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>12.495</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20.825</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>19.195</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2470,6 +3007,364 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Einkauf</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Verkauf</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Risikoklasse</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Gebotspreis</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20.825</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.517</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.195</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.495</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20.825</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19.195</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.517</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.495</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2509,6 +3404,340 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.517</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.495</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20.825</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19.195</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Einkauf</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Verkauf</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Risikoklasse</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Gebotspreis</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -3007,30 +3007,30 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Einkauf</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Verkauf</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Risikoklasse</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Gebotspreis</t>
         </is>
@@ -3046,6 +3046,8 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3057,6 +3059,8 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3068,6 +3072,8 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3096,6 +3102,8 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3107,6 +3115,8 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3152,6 +3162,8 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3163,6 +3175,8 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3174,6 +3188,8 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3185,6 +3201,8 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3196,6 +3214,8 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3241,6 +3261,8 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3252,6 +3274,8 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3263,6 +3287,8 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3274,6 +3300,8 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3285,6 +3313,8 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3330,6 +3360,8 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3738,8 +3770,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3751,8 +3781,6 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3764,8 +3792,6 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3811,8 +3837,6 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3858,8 +3882,6 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3871,8 +3893,6 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3884,8 +3904,6 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3897,8 +3915,6 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3910,8 +3926,6 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3957,8 +3971,6 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3970,8 +3982,6 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3983,8 +3993,6 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3996,8 +4004,6 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4009,8 +4015,6 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4056,8 +4060,6 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
